--- a/Code/Results/Cases/Case_5_199/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_199/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9308017268626259</v>
+        <v>0.4304569862216283</v>
       </c>
       <c r="C2">
-        <v>0.1316296350517945</v>
+        <v>0.1468426154918987</v>
       </c>
       <c r="D2">
-        <v>0.07871827999887415</v>
+        <v>0.05358668348697648</v>
       </c>
       <c r="E2">
-        <v>0.05342589390189545</v>
+        <v>0.1206899266050296</v>
       </c>
       <c r="F2">
-        <v>0.5791294288462367</v>
+        <v>1.019680491591984</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.4472245701292543</v>
+        <v>0.9743034593364683</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8674578129128747</v>
+        <v>0.2759078690222339</v>
       </c>
       <c r="L2">
-        <v>0.1605504487358971</v>
+        <v>0.2112346193438484</v>
       </c>
       <c r="M2">
-        <v>0.202338705597068</v>
+        <v>0.1391969961823882</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.826602631068738</v>
+        <v>3.673779994777647</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8090388156983011</v>
+        <v>0.3949936695926226</v>
       </c>
       <c r="C3">
-        <v>0.1266651331120983</v>
+        <v>0.1450407181110336</v>
       </c>
       <c r="D3">
-        <v>0.07247365457319432</v>
+        <v>0.05133406264843643</v>
       </c>
       <c r="E3">
-        <v>0.05295720674097204</v>
+        <v>0.1212344157328804</v>
       </c>
       <c r="F3">
-        <v>0.5613500227305721</v>
+        <v>1.022163523110493</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.4532941164217803</v>
+        <v>0.9820457855585438</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.758303965108567</v>
+        <v>0.2421641450224001</v>
       </c>
       <c r="L3">
-        <v>0.1463549215350497</v>
+        <v>0.2086123896109626</v>
       </c>
       <c r="M3">
-        <v>0.1767499176269318</v>
+        <v>0.1323664944757788</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.815513330447374</v>
+        <v>3.695655788436966</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7344025668403162</v>
+        <v>0.3733011042209569</v>
       </c>
       <c r="C4">
-        <v>0.1236157197962768</v>
+        <v>0.1439243604565306</v>
       </c>
       <c r="D4">
-        <v>0.06862293604214642</v>
+        <v>0.04993567548891775</v>
       </c>
       <c r="E4">
-        <v>0.05273865582174331</v>
+        <v>0.1216141015284951</v>
       </c>
       <c r="F4">
-        <v>0.5514871382980218</v>
+        <v>1.024239218371036</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.4578266818943426</v>
+        <v>0.9872413179532025</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6912770768515912</v>
+        <v>0.2214114467003583</v>
       </c>
       <c r="L4">
-        <v>0.1378088620753104</v>
+        <v>0.2071037662165907</v>
       </c>
       <c r="M4">
-        <v>0.1611199278090218</v>
+        <v>0.1282237426441526</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.812137717799089</v>
+        <v>3.710914529281411</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.704009746792849</v>
+        <v>0.3644824466778402</v>
       </c>
       <c r="C5">
-        <v>0.1223724107885076</v>
+        <v>0.1434669499554531</v>
       </c>
       <c r="D5">
-        <v>0.06704929506261692</v>
+        <v>0.04936200680958081</v>
       </c>
       <c r="E5">
-        <v>0.05266653274557243</v>
+        <v>0.1217802536036832</v>
       </c>
       <c r="F5">
-        <v>0.5477216290082438</v>
+        <v>1.025223740669638</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.4598698820183031</v>
+        <v>0.9894696601875701</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6639532683490899</v>
+        <v>0.2129465139258571</v>
       </c>
       <c r="L5">
-        <v>0.1343665239928171</v>
+        <v>0.2065145667823813</v>
       </c>
       <c r="M5">
-        <v>0.1547685366840348</v>
+        <v>0.1265485363598629</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.811592762430806</v>
+        <v>3.717592163081008</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6989640985178198</v>
+        <v>0.363019415951527</v>
       </c>
       <c r="C6">
-        <v>0.1221659113803355</v>
+        <v>0.1433908479062325</v>
       </c>
       <c r="D6">
-        <v>0.06678771662474503</v>
+        <v>0.04926651990710695</v>
       </c>
       <c r="E6">
-        <v>0.05265556644726033</v>
+        <v>0.1218085337538621</v>
       </c>
       <c r="F6">
-        <v>0.5471113715601774</v>
+        <v>1.025395596899735</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.460220816023611</v>
+        <v>0.9898463875514878</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6594153448604203</v>
+        <v>0.2115404471205835</v>
       </c>
       <c r="L6">
-        <v>0.1337972862481536</v>
+        <v>0.2064182775000489</v>
       </c>
       <c r="M6">
-        <v>0.1537149049893358</v>
+        <v>0.1262711583505869</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.811551513668931</v>
+        <v>3.718728741477122</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7339926018837559</v>
+        <v>0.3731820859210586</v>
       </c>
       <c r="C7">
-        <v>0.1235989551651784</v>
+        <v>0.1439182016893312</v>
       </c>
       <c r="D7">
-        <v>0.06860173173147643</v>
+        <v>0.04992795420470486</v>
       </c>
       <c r="E7">
-        <v>0.05273761516782649</v>
+        <v>0.1216162960204912</v>
       </c>
       <c r="F7">
-        <v>0.5514353426485812</v>
+        <v>1.024251934449985</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.4578534513968364</v>
+        <v>0.9872709201692302</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6909086287550252</v>
+        <v>0.2212973175604134</v>
       </c>
       <c r="L7">
-        <v>0.1377622777595704</v>
+        <v>0.2070957164143294</v>
       </c>
       <c r="M7">
-        <v>0.1610342013213781</v>
+        <v>0.1282010974314893</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.812127047239343</v>
+        <v>3.711002725156021</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8887854847502581</v>
+        <v>0.4182125558631355</v>
       </c>
       <c r="C8">
-        <v>0.1299179021714281</v>
+        <v>0.1462234083143983</v>
       </c>
       <c r="D8">
-        <v>0.07656837191707666</v>
+        <v>0.05281316320574092</v>
       </c>
       <c r="E8">
-        <v>0.05324963430774865</v>
+        <v>0.1208682618361259</v>
       </c>
       <c r="F8">
-        <v>0.5727734343855744</v>
+        <v>1.020422305380521</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.449146100328246</v>
+        <v>0.9768813649246546</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8298176322712436</v>
+        <v>0.2642803546536925</v>
       </c>
       <c r="L8">
-        <v>0.1556189850789451</v>
+        <v>0.2103094620510504</v>
       </c>
       <c r="M8">
-        <v>0.1934971538008519</v>
+        <v>0.136831283284323</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.822046319000535</v>
+        <v>3.680943697643599</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.193822358426274</v>
+        <v>0.5071461540983648</v>
       </c>
       <c r="C9">
-        <v>0.1423175227105915</v>
+        <v>0.150663775998126</v>
       </c>
       <c r="D9">
-        <v>0.09207492033080911</v>
+        <v>0.05834904085697445</v>
       </c>
       <c r="E9">
-        <v>0.0548252227494892</v>
+        <v>0.1197605389680216</v>
       </c>
       <c r="F9">
-        <v>0.6235150011690536</v>
+        <v>1.017282644966187</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.4387723104682202</v>
+        <v>0.9600102603098222</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.10258132365999</v>
+        <v>0.3482834488540334</v>
       </c>
       <c r="L9">
-        <v>0.1921060512757791</v>
+        <v>0.2174139395231549</v>
       </c>
       <c r="M9">
-        <v>0.2579301998416739</v>
+        <v>0.1541568723306952</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.87029251467834</v>
+        <v>3.636487554016043</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.419575030113037</v>
+        <v>0.5728461095904152</v>
       </c>
       <c r="C10">
-        <v>0.1514598555211535</v>
+        <v>0.1538763405016255</v>
       </c>
       <c r="D10">
-        <v>0.1034198317225545</v>
+        <v>0.06234106942189754</v>
       </c>
       <c r="E10">
-        <v>0.0563638365099024</v>
+        <v>0.1191646370865609</v>
       </c>
       <c r="F10">
-        <v>0.6670086861590008</v>
+        <v>1.017638205870142</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.4356859703972731</v>
+        <v>0.9497479141043144</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.303828922494404</v>
+        <v>0.409808439535766</v>
       </c>
       <c r="L10">
-        <v>0.2199888955481413</v>
+        <v>0.2231201489645542</v>
       </c>
       <c r="M10">
-        <v>0.3059298304367246</v>
+        <v>0.1671263506892871</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.925575330207607</v>
+        <v>3.612652957088358</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.522808115176986</v>
+        <v>0.6028085274433579</v>
       </c>
       <c r="C11">
-        <v>0.1556326533412573</v>
+        <v>0.15532683600631</v>
       </c>
       <c r="D11">
-        <v>0.1085760591714973</v>
+        <v>0.06414067257035327</v>
       </c>
       <c r="E11">
-        <v>0.05715417607540374</v>
+        <v>0.1189406587720594</v>
       </c>
       <c r="F11">
-        <v>0.6883308045759549</v>
+        <v>1.018377728254485</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.4353729092908978</v>
+        <v>0.9455419240679745</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.395716106230168</v>
+        <v>0.4377527216997237</v>
       </c>
       <c r="L11">
-        <v>0.2329495954924425</v>
+        <v>0.225821204556695</v>
       </c>
       <c r="M11">
-        <v>0.3279546356205287</v>
+        <v>0.1730778080252406</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.955571927281369</v>
+        <v>3.603725710979546</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.561992296647247</v>
+        <v>0.6141648029473004</v>
       </c>
       <c r="C12">
-        <v>0.157215373702428</v>
+        <v>0.1558745098908645</v>
       </c>
       <c r="D12">
-        <v>0.1105283893688664</v>
+        <v>0.06481975759317748</v>
       </c>
       <c r="E12">
-        <v>0.05746713249301649</v>
+        <v>0.1188625988993675</v>
       </c>
       <c r="F12">
-        <v>0.6966424445357546</v>
+        <v>1.018740795757566</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.4354207232503455</v>
+        <v>0.9440156794015451</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.430573151686986</v>
+        <v>0.4483277895185722</v>
       </c>
       <c r="L12">
-        <v>0.237900983420559</v>
+        <v>0.2268591028726803</v>
       </c>
       <c r="M12">
-        <v>0.3363260378128103</v>
+        <v>0.1753387809628606</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.967676155273324</v>
+        <v>3.6006204869974</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.55354894063143</v>
+        <v>0.6117185844158541</v>
       </c>
       <c r="C13">
-        <v>0.1568743824968948</v>
+        <v>0.1557566299975406</v>
       </c>
       <c r="D13">
-        <v>0.1101079225588677</v>
+        <v>0.06467361104071045</v>
       </c>
       <c r="E13">
-        <v>0.05739911255818519</v>
+        <v>0.1188791102939799</v>
       </c>
       <c r="F13">
-        <v>0.6948415514229325</v>
+        <v>1.018658910971929</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.4354028688226634</v>
+        <v>0.9443414274435611</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.423063122526514</v>
+        <v>0.4460505715160821</v>
       </c>
       <c r="L13">
-        <v>0.2368326198738515</v>
+        <v>0.2266349039127107</v>
       </c>
       <c r="M13">
-        <v>0.3345216601332766</v>
+        <v>0.1748515180671575</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.965035352773157</v>
+        <v>3.601277008399393</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.526029887820471</v>
+        <v>0.6037426152118144</v>
       </c>
       <c r="C14">
-        <v>0.1557628096864221</v>
+        <v>0.1553719256346824</v>
       </c>
       <c r="D14">
-        <v>0.1087366803293577</v>
+        <v>0.06419658927983107</v>
       </c>
       <c r="E14">
-        <v>0.05717964519816476</v>
+        <v>0.1189341014401659</v>
       </c>
       <c r="F14">
-        <v>0.6890097519241962</v>
+        <v>1.018405934393734</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.4353734522287454</v>
+        <v>0.9454150269106023</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.398582510680598</v>
+        <v>0.4386228787441269</v>
       </c>
       <c r="L14">
-        <v>0.2333560564321431</v>
+        <v>0.2259062915132404</v>
       </c>
       <c r="M14">
-        <v>0.3286427100054894</v>
+        <v>0.1732636743757325</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.956552528690196</v>
+        <v>3.6034647247522</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.50918611929589</v>
+        <v>0.5988584073218419</v>
       </c>
       <c r="C15">
-        <v>0.1550822920843018</v>
+        <v>0.1551360742764842</v>
       </c>
       <c r="D15">
-        <v>0.1078967397787878</v>
+        <v>0.06390408814583282</v>
       </c>
       <c r="E15">
-        <v>0.0570470161790233</v>
+        <v>0.1189686644082322</v>
       </c>
       <c r="F15">
-        <v>0.6854690316819188</v>
+        <v>1.018261789715169</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.4353773913855647</v>
+        <v>0.946081293654224</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.383595812028204</v>
+        <v>0.4340722977316318</v>
       </c>
       <c r="L15">
-        <v>0.2312323327098369</v>
+        <v>0.2254619554669119</v>
       </c>
       <c r="M15">
-        <v>0.3250458499108362</v>
+        <v>0.1722920191162771</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.951455076389664</v>
+        <v>3.60484061800318</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.412840555692895</v>
+        <v>0.5708894520985552</v>
       </c>
       <c r="C16">
-        <v>0.1511874810387823</v>
+        <v>0.1537813251896338</v>
       </c>
       <c r="D16">
-        <v>0.1030828042722973</v>
+        <v>0.06222312884982983</v>
       </c>
       <c r="E16">
-        <v>0.05631406175156251</v>
+        <v>0.1191802209127548</v>
       </c>
       <c r="F16">
-        <v>0.6656475384396359</v>
+        <v>1.017601497819477</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.43572917914301</v>
+        <v>0.950032088420766</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.297831755312671</v>
+        <v>0.407981288966738</v>
       </c>
       <c r="L16">
-        <v>0.21914775858626</v>
+        <v>0.2229457409250841</v>
       </c>
       <c r="M16">
-        <v>0.3044945931149741</v>
+        <v>0.1667384355704513</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.923716571251674</v>
+        <v>3.613274906369952</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.353883448299825</v>
+        <v>0.5537501943411201</v>
       </c>
       <c r="C17">
-        <v>0.1488020944331225</v>
+        <v>0.1529474149506882</v>
       </c>
       <c r="D17">
-        <v>0.1001287316721786</v>
+        <v>0.06118769631697063</v>
       </c>
       <c r="E17">
-        <v>0.05588804013550686</v>
+        <v>0.1193220553358163</v>
       </c>
       <c r="F17">
-        <v>0.6538926330144008</v>
+        <v>1.01734437215147</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.4362309626306384</v>
+        <v>0.95257419092313</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.245313746051693</v>
+        <v>0.391963715106499</v>
       </c>
       <c r="L17">
-        <v>0.2118076581472934</v>
+        <v>0.2214290372116636</v>
       </c>
       <c r="M17">
-        <v>0.2919382513152868</v>
+        <v>0.163344608392471</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.907974797316427</v>
+        <v>3.618939551067854</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.320022482024569</v>
+        <v>0.5438992616703615</v>
       </c>
       <c r="C18">
-        <v>0.1474313548115589</v>
+        <v>0.1524667459892868</v>
       </c>
       <c r="D18">
-        <v>0.09842916306796923</v>
+        <v>0.06059060185559417</v>
       </c>
       <c r="E18">
-        <v>0.05565147176016794</v>
+        <v>0.1194080690850932</v>
       </c>
       <c r="F18">
-        <v>0.6472751100807983</v>
+        <v>1.01725086674999</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.4366216552694198</v>
+        <v>0.9540798658029033</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.215137839213867</v>
+        <v>0.3827467447112554</v>
       </c>
       <c r="L18">
-        <v>0.2076116330451612</v>
+        <v>0.220566582324949</v>
       </c>
       <c r="M18">
-        <v>0.2847337707108863</v>
+        <v>0.1613974312466553</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.899373821058816</v>
+        <v>3.622377980246426</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.308565825187486</v>
+        <v>0.5405651470556734</v>
       </c>
       <c r="C19">
-        <v>0.1469674476671017</v>
+        <v>0.1523038243892643</v>
       </c>
       <c r="D19">
-        <v>0.09785362557176569</v>
+        <v>0.06038817212742487</v>
       </c>
       <c r="E19">
-        <v>0.05557280838486456</v>
+        <v>0.1194379539869388</v>
       </c>
       <c r="F19">
-        <v>0.645058707834437</v>
+        <v>1.01722855008083</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.4367711902487628</v>
+        <v>0.9545971374896638</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.204925759585137</v>
+        <v>0.3796253515259878</v>
       </c>
       <c r="L19">
-        <v>0.2061952553828235</v>
+        <v>0.2202762746381808</v>
       </c>
       <c r="M19">
-        <v>0.2822973668181703</v>
+        <v>0.1607389896648712</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.896538117327793</v>
+        <v>3.623573138103922</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.360154295295757</v>
+        <v>0.5555739659360768</v>
       </c>
       <c r="C20">
-        <v>0.1490558873010812</v>
+        <v>0.153036292490988</v>
       </c>
       <c r="D20">
-        <v>0.1004432426611643</v>
+        <v>0.06129807957891131</v>
       </c>
       <c r="E20">
-        <v>0.05593250973157282</v>
+        <v>0.119306498006031</v>
       </c>
       <c r="F20">
-        <v>0.655128986198676</v>
+        <v>1.017366115230395</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.4361669152461758</v>
+        <v>0.9522990752704459</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.250901074030196</v>
+        <v>0.3936692399072967</v>
       </c>
       <c r="L20">
-        <v>0.2125863276673101</v>
+        <v>0.2215894674688599</v>
       </c>
       <c r="M20">
-        <v>0.2932730473830958</v>
+        <v>0.16370538479309</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.909603286041431</v>
+        <v>3.618317882699387</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.534110279026805</v>
+        <v>0.6060850802116988</v>
       </c>
       <c r="C21">
-        <v>0.1560892309415607</v>
+        <v>0.1554849661990403</v>
       </c>
       <c r="D21">
-        <v>0.1091394497196134</v>
+        <v>0.06433676710750547</v>
       </c>
       <c r="E21">
-        <v>0.05724373148566997</v>
+        <v>0.1189177659920286</v>
       </c>
       <c r="F21">
-        <v>0.6907161128924528</v>
+        <v>1.018477986893615</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.4353774988183758</v>
+        <v>0.9450978808421127</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.405771288876309</v>
+        <v>0.4408047616568638</v>
       </c>
       <c r="L21">
-        <v>0.2343759976647277</v>
+        <v>0.2261198942834</v>
       </c>
       <c r="M21">
-        <v>0.3303686246333228</v>
+        <v>0.1737298658864503</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.959023517536622</v>
+        <v>3.602814667666365</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.648344774898106</v>
+        <v>0.639155920891028</v>
       </c>
       <c r="C22">
-        <v>0.160701223321027</v>
+        <v>0.1570759931764627</v>
       </c>
       <c r="D22">
-        <v>0.1148218630238986</v>
+        <v>0.06630880648236115</v>
       </c>
       <c r="E22">
-        <v>0.058180722096008</v>
+        <v>0.1187030774923521</v>
       </c>
       <c r="F22">
-        <v>0.7153666303874786</v>
+        <v>1.01968857362219</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4358361234706152</v>
+        <v>0.9407789269421798</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.50735215188115</v>
+        <v>0.4715705190787958</v>
       </c>
       <c r="L22">
-        <v>0.248871958478901</v>
+        <v>0.2291685801826446</v>
       </c>
       <c r="M22">
-        <v>0.3547958962771744</v>
+        <v>0.1803238466073509</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.995690539349852</v>
+        <v>3.594287219584231</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.587320702644007</v>
+        <v>0.6215002160052165</v>
       </c>
       <c r="C23">
-        <v>0.1582381143274461</v>
+        <v>0.1562276942347722</v>
       </c>
       <c r="D23">
-        <v>0.111788994131814</v>
+        <v>0.06525757497593787</v>
       </c>
       <c r="E23">
-        <v>0.0576730775423453</v>
+        <v>0.1188140640540585</v>
       </c>
       <c r="F23">
-        <v>0.7020770697872578</v>
+        <v>1.018998201635185</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.4354988747666937</v>
+        <v>0.9430485896413145</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.453098777594789</v>
+        <v>0.4551540945910233</v>
       </c>
       <c r="L23">
-        <v>0.2411105686818757</v>
+        <v>0.2275334297954856</v>
       </c>
       <c r="M23">
-        <v>0.3417405057821483</v>
+        <v>0.1768006785427048</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.975704270045128</v>
+        <v>3.598691665875492</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.357319139764542</v>
+        <v>0.5547494304794895</v>
       </c>
       <c r="C24">
-        <v>0.1489411455605492</v>
+        <v>0.1529961148258252</v>
       </c>
       <c r="D24">
-        <v>0.1003010561166064</v>
+        <v>0.06124818094355788</v>
       </c>
       <c r="E24">
-        <v>0.05591237904681456</v>
+        <v>0.1193135175462494</v>
       </c>
       <c r="F24">
-        <v>0.6545695944396783</v>
+        <v>1.017356115978536</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.4361955534157005</v>
+        <v>0.9524233174174057</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.248374989812106</v>
+        <v>0.3928981978148158</v>
       </c>
       <c r="L24">
-        <v>0.2122342170199545</v>
+        <v>0.2215169072963192</v>
       </c>
       <c r="M24">
-        <v>0.292669541740274</v>
+        <v>0.163542265377707</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.908865650788385</v>
+        <v>3.618598372822476</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.111069479390096</v>
+        <v>0.4830223065539201</v>
       </c>
       <c r="C25">
-        <v>0.138959529171629</v>
+        <v>0.1494712137925021</v>
       </c>
       <c r="D25">
-        <v>0.08789012402203866</v>
+        <v>0.05686458403999239</v>
       </c>
       <c r="E25">
-        <v>0.05433453918077902</v>
+        <v>0.1200218609907768</v>
       </c>
       <c r="F25">
-        <v>0.608756802882759</v>
+        <v>1.017664340423231</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.4408164338245939</v>
+        <v>0.9641996066271119</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.028690429854322</v>
+        <v>0.3255908650441199</v>
       </c>
       <c r="L25">
-        <v>0.1820600468303795</v>
+        <v>0.2154063605009782</v>
       </c>
       <c r="M25">
-        <v>0.2403977413381782</v>
+        <v>0.1494272990656249</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.853930673078025</v>
+        <v>3.646963519823402</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_199/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_199/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4304569862216283</v>
+        <v>0.9308017268626259</v>
       </c>
       <c r="C2">
-        <v>0.1468426154918987</v>
+        <v>0.1316296350518158</v>
       </c>
       <c r="D2">
-        <v>0.05358668348697648</v>
+        <v>0.07871827999887415</v>
       </c>
       <c r="E2">
-        <v>0.1206899266050296</v>
+        <v>0.05342589390188124</v>
       </c>
       <c r="F2">
-        <v>1.019680491591984</v>
+        <v>0.5791294288462367</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.9743034593364683</v>
+        <v>0.4472245701292543</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2759078690222339</v>
+        <v>0.8674578129128747</v>
       </c>
       <c r="L2">
-        <v>0.2112346193438484</v>
+        <v>0.1605504487357265</v>
       </c>
       <c r="M2">
-        <v>0.1391969961823882</v>
+        <v>0.2023387055970645</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.673779994777647</v>
+        <v>1.82660263106871</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3949936695926226</v>
+        <v>0.8090388156982726</v>
       </c>
       <c r="C3">
-        <v>0.1450407181110336</v>
+        <v>0.1266651331120201</v>
       </c>
       <c r="D3">
-        <v>0.05133406264843643</v>
+        <v>0.07247365457314459</v>
       </c>
       <c r="E3">
-        <v>0.1212344157328804</v>
+        <v>0.05295720674098447</v>
       </c>
       <c r="F3">
-        <v>1.022163523110493</v>
+        <v>0.5613500227305792</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.9820457855585438</v>
+        <v>0.4532941164217661</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2421641450224001</v>
+        <v>0.7583039651085244</v>
       </c>
       <c r="L3">
-        <v>0.2086123896109626</v>
+        <v>0.1463549215350213</v>
       </c>
       <c r="M3">
-        <v>0.1323664944757788</v>
+        <v>0.1767499176269247</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.695655788436966</v>
+        <v>1.815513330447274</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3733011042209569</v>
+        <v>0.7344025668402878</v>
       </c>
       <c r="C4">
-        <v>0.1439243604565306</v>
+        <v>0.123615719796355</v>
       </c>
       <c r="D4">
-        <v>0.04993567548891775</v>
+        <v>0.06862293604206116</v>
       </c>
       <c r="E4">
-        <v>0.1216141015284951</v>
+        <v>0.05273865582173975</v>
       </c>
       <c r="F4">
-        <v>1.024239218371036</v>
+        <v>0.5514871382980431</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9872413179532025</v>
+        <v>0.4578266818943355</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2214114467003583</v>
+        <v>0.6912770768516623</v>
       </c>
       <c r="L4">
-        <v>0.2071037662165907</v>
+        <v>0.1378088620752891</v>
       </c>
       <c r="M4">
-        <v>0.1282237426441526</v>
+        <v>0.1611199278090254</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.710914529281411</v>
+        <v>1.812137717799104</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3644824466778402</v>
+        <v>0.7040097467929627</v>
       </c>
       <c r="C5">
-        <v>0.1434669499554531</v>
+        <v>0.1223724107885076</v>
       </c>
       <c r="D5">
-        <v>0.04936200680958081</v>
+        <v>0.06704929506250323</v>
       </c>
       <c r="E5">
-        <v>0.1217802536036832</v>
+        <v>0.0526665327455742</v>
       </c>
       <c r="F5">
-        <v>1.025223740669638</v>
+        <v>0.5477216290082367</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9894696601875701</v>
+        <v>0.4598698820183174</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2129465139258571</v>
+        <v>0.6639532683490899</v>
       </c>
       <c r="L5">
-        <v>0.2065145667823813</v>
+        <v>0.1343665239928669</v>
       </c>
       <c r="M5">
-        <v>0.1265485363598629</v>
+        <v>0.1547685366840454</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.717592163081008</v>
+        <v>1.811592762430806</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.363019415951527</v>
+        <v>0.6989640985177914</v>
       </c>
       <c r="C6">
-        <v>0.1433908479062325</v>
+        <v>0.1221659113801792</v>
       </c>
       <c r="D6">
-        <v>0.04926651990710695</v>
+        <v>0.0667877166248303</v>
       </c>
       <c r="E6">
-        <v>0.1218085337538621</v>
+        <v>0.05265556644725677</v>
       </c>
       <c r="F6">
-        <v>1.025395596899735</v>
+        <v>0.5471113715601774</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9898463875514878</v>
+        <v>0.4602208160236003</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2115404471205835</v>
+        <v>0.6594153448603493</v>
       </c>
       <c r="L6">
-        <v>0.2064182775000489</v>
+        <v>0.1337972862480683</v>
       </c>
       <c r="M6">
-        <v>0.1262711583505869</v>
+        <v>0.1537149049893323</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.718728741477122</v>
+        <v>1.81155151366886</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3731820859210586</v>
+        <v>0.7339926018837275</v>
       </c>
       <c r="C7">
-        <v>0.1439182016893312</v>
+        <v>0.1235989551651144</v>
       </c>
       <c r="D7">
-        <v>0.04992795420470486</v>
+        <v>0.06860173173146933</v>
       </c>
       <c r="E7">
-        <v>0.1216162960204912</v>
+        <v>0.05273761516783892</v>
       </c>
       <c r="F7">
-        <v>1.024251934449985</v>
+        <v>0.551435342648567</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9872709201692302</v>
+        <v>0.45785345139684</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2212973175604134</v>
+        <v>0.6909086287550252</v>
       </c>
       <c r="L7">
-        <v>0.2070957164143294</v>
+        <v>0.1377622777595988</v>
       </c>
       <c r="M7">
-        <v>0.1282010974314893</v>
+        <v>0.1610342013213888</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.711002725156021</v>
+        <v>1.812127047239329</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4182125558631355</v>
+        <v>0.8887854847501728</v>
       </c>
       <c r="C8">
-        <v>0.1462234083143983</v>
+        <v>0.1299179021714849</v>
       </c>
       <c r="D8">
-        <v>0.05281316320574092</v>
+        <v>0.07656837191719035</v>
       </c>
       <c r="E8">
-        <v>0.1208682618361259</v>
+        <v>0.0532496343077753</v>
       </c>
       <c r="F8">
-        <v>1.020422305380521</v>
+        <v>0.5727734343855957</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.9768813649246546</v>
+        <v>0.4491461003282389</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2642803546536925</v>
+        <v>0.8298176322711868</v>
       </c>
       <c r="L8">
-        <v>0.2103094620510504</v>
+        <v>0.1556189850789735</v>
       </c>
       <c r="M8">
-        <v>0.136831283284323</v>
+        <v>0.1934971538008448</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.680943697643599</v>
+        <v>1.82204631900052</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5071461540983648</v>
+        <v>1.193822358426246</v>
       </c>
       <c r="C9">
-        <v>0.150663775998126</v>
+        <v>0.1423175227108331</v>
       </c>
       <c r="D9">
-        <v>0.05834904085697445</v>
+        <v>0.09207492033056752</v>
       </c>
       <c r="E9">
-        <v>0.1197605389680216</v>
+        <v>0.05482522274950519</v>
       </c>
       <c r="F9">
-        <v>1.017282644966187</v>
+        <v>0.6235150011690322</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.9600102603098222</v>
+        <v>0.438772310468206</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3482834488540334</v>
+        <v>1.102581323659962</v>
       </c>
       <c r="L9">
-        <v>0.2174139395231549</v>
+        <v>0.1921060512757293</v>
       </c>
       <c r="M9">
-        <v>0.1541568723306952</v>
+        <v>0.2579301998416703</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.636487554016043</v>
+        <v>1.870292514678283</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5728461095904152</v>
+        <v>1.419575030113009</v>
       </c>
       <c r="C10">
-        <v>0.1538763405016255</v>
+        <v>0.1514598555209901</v>
       </c>
       <c r="D10">
-        <v>0.06234106942189754</v>
+        <v>0.1034198317225545</v>
       </c>
       <c r="E10">
-        <v>0.1191646370865609</v>
+        <v>0.05636383650989885</v>
       </c>
       <c r="F10">
-        <v>1.017638205870142</v>
+        <v>0.667008686159015</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.9497479141043144</v>
+        <v>0.4356859703972518</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.409808439535766</v>
+        <v>1.303828922494489</v>
       </c>
       <c r="L10">
-        <v>0.2231201489645542</v>
+        <v>0.2199888955480702</v>
       </c>
       <c r="M10">
-        <v>0.1671263506892871</v>
+        <v>0.3059298304367175</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.612652957088358</v>
+        <v>1.925575330207664</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6028085274433579</v>
+        <v>1.522808115176957</v>
       </c>
       <c r="C11">
-        <v>0.15532683600631</v>
+        <v>0.1556326533411578</v>
       </c>
       <c r="D11">
-        <v>0.06414067257035327</v>
+        <v>0.1085760591716749</v>
       </c>
       <c r="E11">
-        <v>0.1189406587720594</v>
+        <v>0.05715417607543216</v>
       </c>
       <c r="F11">
-        <v>1.018377728254485</v>
+        <v>0.6883308045759406</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.9455419240679745</v>
+        <v>0.435372909290912</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4377527216997237</v>
+        <v>1.39571610623014</v>
       </c>
       <c r="L11">
-        <v>0.225821204556695</v>
+        <v>0.2329495954923715</v>
       </c>
       <c r="M11">
-        <v>0.1730778080252406</v>
+        <v>0.3279546356205358</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.603725710979546</v>
+        <v>1.955571927281397</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6141648029473004</v>
+        <v>1.561992296647333</v>
       </c>
       <c r="C12">
-        <v>0.1558745098908645</v>
+        <v>0.1572153737026696</v>
       </c>
       <c r="D12">
-        <v>0.06481975759317748</v>
+        <v>0.1105283893687528</v>
       </c>
       <c r="E12">
-        <v>0.1188625988993675</v>
+        <v>0.05746713249302715</v>
       </c>
       <c r="F12">
-        <v>1.018740795757566</v>
+        <v>0.6966424445357546</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.9440156794015451</v>
+        <v>0.4354207232503455</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4483277895185722</v>
+        <v>1.430573151686843</v>
       </c>
       <c r="L12">
-        <v>0.2268591028726803</v>
+        <v>0.2379009834204169</v>
       </c>
       <c r="M12">
-        <v>0.1753387809628606</v>
+        <v>0.3363260378128103</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.6006204869974</v>
+        <v>1.967676155273381</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6117185844158541</v>
+        <v>1.553548940631572</v>
       </c>
       <c r="C13">
-        <v>0.1557566299975406</v>
+        <v>0.1568743824971079</v>
       </c>
       <c r="D13">
-        <v>0.06467361104071045</v>
+        <v>0.1101079225589885</v>
       </c>
       <c r="E13">
-        <v>0.1188791102939799</v>
+        <v>0.05739911255818342</v>
       </c>
       <c r="F13">
-        <v>1.018658910971929</v>
+        <v>0.6948415514229183</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.9443414274435611</v>
+        <v>0.4354028688226705</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4460505715160821</v>
+        <v>1.423063122526628</v>
       </c>
       <c r="L13">
-        <v>0.2266349039127107</v>
+        <v>0.2368326198737662</v>
       </c>
       <c r="M13">
-        <v>0.1748515180671575</v>
+        <v>0.3345216601332766</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.601277008399393</v>
+        <v>1.965035352773128</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6037426152118144</v>
+        <v>1.526029887820442</v>
       </c>
       <c r="C14">
-        <v>0.1553719256346824</v>
+        <v>0.1557628096866779</v>
       </c>
       <c r="D14">
-        <v>0.06419658927983107</v>
+        <v>0.1087366803293506</v>
       </c>
       <c r="E14">
-        <v>0.1189341014401659</v>
+        <v>0.05717964519813634</v>
       </c>
       <c r="F14">
-        <v>1.018405934393734</v>
+        <v>0.6890097519241962</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.9454150269106023</v>
+        <v>0.4353734522287382</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4386228787441269</v>
+        <v>1.398582510680399</v>
       </c>
       <c r="L14">
-        <v>0.2259062915132404</v>
+        <v>0.2333560564321431</v>
       </c>
       <c r="M14">
-        <v>0.1732636743757325</v>
+        <v>0.3286427100054965</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.6034647247522</v>
+        <v>1.956552528690139</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5988584073218419</v>
+        <v>1.509186119295862</v>
       </c>
       <c r="C15">
-        <v>0.1551360742764842</v>
+        <v>0.1550822920845292</v>
       </c>
       <c r="D15">
-        <v>0.06390408814583282</v>
+        <v>0.1078967397786599</v>
       </c>
       <c r="E15">
-        <v>0.1189686644082322</v>
+        <v>0.05704701617900909</v>
       </c>
       <c r="F15">
-        <v>1.018261789715169</v>
+        <v>0.6854690316819045</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.946081293654224</v>
+        <v>0.4353773913855647</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4340722977316318</v>
+        <v>1.383595812028176</v>
       </c>
       <c r="L15">
-        <v>0.2254619554669119</v>
+        <v>0.2312323327097801</v>
       </c>
       <c r="M15">
-        <v>0.1722920191162771</v>
+        <v>0.3250458499108291</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.60484061800318</v>
+        <v>1.951455076389607</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5708894520985552</v>
+        <v>1.412840555692924</v>
       </c>
       <c r="C16">
-        <v>0.1537813251896338</v>
+        <v>0.1511874810389173</v>
       </c>
       <c r="D16">
-        <v>0.06222312884982983</v>
+        <v>0.1030828042720628</v>
       </c>
       <c r="E16">
-        <v>0.1191802209127548</v>
+        <v>0.05631406175154829</v>
       </c>
       <c r="F16">
-        <v>1.017601497819477</v>
+        <v>0.6656475384396288</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.950032088420766</v>
+        <v>0.4357291791429958</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.407981288966738</v>
+        <v>1.297831755312615</v>
       </c>
       <c r="L16">
-        <v>0.2229457409250841</v>
+        <v>0.2191477585863026</v>
       </c>
       <c r="M16">
-        <v>0.1667384355704513</v>
+        <v>0.3044945931149599</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.613274906369952</v>
+        <v>1.923716571251617</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5537501943411201</v>
+        <v>1.353883448299797</v>
       </c>
       <c r="C17">
-        <v>0.1529474149506882</v>
+        <v>0.1488020944326394</v>
       </c>
       <c r="D17">
-        <v>0.06118769631697063</v>
+        <v>0.100128731672271</v>
       </c>
       <c r="E17">
-        <v>0.1193220553358163</v>
+        <v>0.05588804013550508</v>
       </c>
       <c r="F17">
-        <v>1.01734437215147</v>
+        <v>0.6538926330143937</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.95257419092313</v>
+        <v>0.4362309626306136</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.391963715106499</v>
+        <v>1.245313746051607</v>
       </c>
       <c r="L17">
-        <v>0.2214290372116636</v>
+        <v>0.2118076581471797</v>
       </c>
       <c r="M17">
-        <v>0.163344608392471</v>
+        <v>0.2919382513152868</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.618939551067854</v>
+        <v>1.907974797316399</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5438992616703615</v>
+        <v>1.320022482024626</v>
       </c>
       <c r="C18">
-        <v>0.1524667459892868</v>
+        <v>0.1474313548115589</v>
       </c>
       <c r="D18">
-        <v>0.06059060185559417</v>
+        <v>0.09842916306807581</v>
       </c>
       <c r="E18">
-        <v>0.1194080690850932</v>
+        <v>0.05565147176018037</v>
       </c>
       <c r="F18">
-        <v>1.01725086674999</v>
+        <v>0.6472751100807841</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.9540798658029033</v>
+        <v>0.4366216552694162</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3827467447112554</v>
+        <v>1.215137839213924</v>
       </c>
       <c r="L18">
-        <v>0.220566582324949</v>
+        <v>0.2076116330452038</v>
       </c>
       <c r="M18">
-        <v>0.1613974312466553</v>
+        <v>0.2847337707108792</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.622377980246426</v>
+        <v>1.899373821058816</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5405651470556734</v>
+        <v>1.308565825187458</v>
       </c>
       <c r="C19">
-        <v>0.1523038243892643</v>
+        <v>0.1469674476668601</v>
       </c>
       <c r="D19">
-        <v>0.06038817212742487</v>
+        <v>0.09785362557175858</v>
       </c>
       <c r="E19">
-        <v>0.1194379539869388</v>
+        <v>0.05557280838486278</v>
       </c>
       <c r="F19">
-        <v>1.01722855008083</v>
+        <v>0.6450587078344086</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.9545971374896638</v>
+        <v>0.4367711902487343</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3796253515259878</v>
+        <v>1.204925759585365</v>
       </c>
       <c r="L19">
-        <v>0.2202762746381808</v>
+        <v>0.2061952553828945</v>
       </c>
       <c r="M19">
-        <v>0.1607389896648712</v>
+        <v>0.2822973668181774</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.623573138103922</v>
+        <v>1.896538117327879</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5555739659360768</v>
+        <v>1.360154295295757</v>
       </c>
       <c r="C20">
-        <v>0.153036292490988</v>
+        <v>0.1490558873010599</v>
       </c>
       <c r="D20">
-        <v>0.06129807957891131</v>
+        <v>0.1004432426613988</v>
       </c>
       <c r="E20">
-        <v>0.119306498006031</v>
+        <v>0.05593250973155328</v>
       </c>
       <c r="F20">
-        <v>1.017366115230395</v>
+        <v>0.655128986198676</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.9522990752704459</v>
+        <v>0.4361669152461687</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3936692399072967</v>
+        <v>1.250901074030025</v>
       </c>
       <c r="L20">
-        <v>0.2215894674688599</v>
+        <v>0.2125863276672817</v>
       </c>
       <c r="M20">
-        <v>0.16370538479309</v>
+        <v>0.2932730473830887</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.618317882699387</v>
+        <v>1.909603286041374</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6060850802116988</v>
+        <v>1.534110279026748</v>
       </c>
       <c r="C21">
-        <v>0.1554849661990403</v>
+        <v>0.1560892309417881</v>
       </c>
       <c r="D21">
-        <v>0.06433676710750547</v>
+        <v>0.1091394497191942</v>
       </c>
       <c r="E21">
-        <v>0.1189177659920286</v>
+        <v>0.05724373148566997</v>
       </c>
       <c r="F21">
-        <v>1.018477986893615</v>
+        <v>0.6907161128924528</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.9450978808421127</v>
+        <v>0.4353774988183545</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4408047616568638</v>
+        <v>1.405771288876394</v>
       </c>
       <c r="L21">
-        <v>0.2261198942834</v>
+        <v>0.2343759976648556</v>
       </c>
       <c r="M21">
-        <v>0.1737298658864503</v>
+        <v>0.3303686246333228</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.602814667666365</v>
+        <v>1.95902351753665</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.639155920891028</v>
+        <v>1.648344774898192</v>
       </c>
       <c r="C22">
-        <v>0.1570759931764627</v>
+        <v>0.1607012233205438</v>
       </c>
       <c r="D22">
-        <v>0.06630880648236115</v>
+        <v>0.1148218630237778</v>
       </c>
       <c r="E22">
-        <v>0.1187030774923521</v>
+        <v>0.05818072209598668</v>
       </c>
       <c r="F22">
-        <v>1.01968857362219</v>
+        <v>0.715366630387507</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.9407789269421798</v>
+        <v>0.4358361234706081</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4715705190787958</v>
+        <v>1.507352151881179</v>
       </c>
       <c r="L22">
-        <v>0.2291685801826446</v>
+        <v>0.2488719584788868</v>
       </c>
       <c r="M22">
-        <v>0.1803238466073509</v>
+        <v>0.3547958962771887</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.594287219584231</v>
+        <v>1.995690539349937</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6215002160052165</v>
+        <v>1.58732070264395</v>
       </c>
       <c r="C23">
-        <v>0.1562276942347722</v>
+        <v>0.1582381143273182</v>
       </c>
       <c r="D23">
-        <v>0.06525757497593787</v>
+        <v>0.1117889941317287</v>
       </c>
       <c r="E23">
-        <v>0.1188140640540585</v>
+        <v>0.05767307754233819</v>
       </c>
       <c r="F23">
-        <v>1.018998201635185</v>
+        <v>0.7020770697872578</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.9430485896413145</v>
+        <v>0.4354988747666937</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4551540945910233</v>
+        <v>1.453098777594846</v>
       </c>
       <c r="L23">
-        <v>0.2275334297954856</v>
+        <v>0.2411105686818615</v>
       </c>
       <c r="M23">
-        <v>0.1768006785427048</v>
+        <v>0.3417405057821412</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.598691665875492</v>
+        <v>1.975704270045128</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5547494304794895</v>
+        <v>1.3573191397644</v>
       </c>
       <c r="C24">
-        <v>0.1529961148258252</v>
+        <v>0.1489411455605492</v>
       </c>
       <c r="D24">
-        <v>0.06124818094355788</v>
+        <v>0.1003010561165993</v>
       </c>
       <c r="E24">
-        <v>0.1193135175462494</v>
+        <v>0.0559123790467968</v>
       </c>
       <c r="F24">
-        <v>1.017356115978536</v>
+        <v>0.6545695944396925</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.9524233174174057</v>
+        <v>0.4361955534157005</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3928981978148158</v>
+        <v>1.248374989812135</v>
       </c>
       <c r="L24">
-        <v>0.2215169072963192</v>
+        <v>0.2122342170199261</v>
       </c>
       <c r="M24">
-        <v>0.163542265377707</v>
+        <v>0.2926695417402883</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.618598372822476</v>
+        <v>1.908865650788357</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4830223065539201</v>
+        <v>1.111069479390096</v>
       </c>
       <c r="C25">
-        <v>0.1494712137925021</v>
+        <v>0.1389595291718067</v>
       </c>
       <c r="D25">
-        <v>0.05686458403999239</v>
+        <v>0.08789012402215945</v>
       </c>
       <c r="E25">
-        <v>0.1200218609907768</v>
+        <v>0.05433453918075237</v>
       </c>
       <c r="F25">
-        <v>1.017664340423231</v>
+        <v>0.6087568028827448</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.9641996066271119</v>
+        <v>0.440816433824601</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3255908650441199</v>
+        <v>1.028690429854464</v>
       </c>
       <c r="L25">
-        <v>0.2154063605009782</v>
+        <v>0.1820600468303368</v>
       </c>
       <c r="M25">
-        <v>0.1494272990656249</v>
+        <v>0.2403977413381782</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.646963519823402</v>
+        <v>1.853930673077969</v>
       </c>
     </row>
   </sheetData>
